--- a/progression.xlsx
+++ b/progression.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c2tho_000\Documents\clickergame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron Thornton\Documents\clickergame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Progression" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>M2</t>
   </si>
@@ -52,11 +52,17 @@
   <si>
     <t>Gold Drop</t>
   </si>
+  <si>
+    <t>PrestigeCurrency</t>
+  </si>
+  <si>
+    <t>Prestige</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,23 +377,23 @@
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -400,12 +406,18 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
       </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
       <c r="Q1" t="s">
         <v>4</v>
       </c>
@@ -413,12 +425,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A2),0)</f>
+        <f t="shared" ref="B2:B33" si="0">ROUND($K$2*$K$4*$K$5*($K$3^A2),0)</f>
         <v>11</v>
       </c>
       <c r="C2">
@@ -426,8 +438,12 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <f>C2*$R$1</f>
+        <f t="shared" ref="D2:D33" si="1">C2*$R$1</f>
         <v>400</v>
+      </c>
+      <c r="E2">
+        <f>ROUND($M$2*$M$4*$M$5*($M$3^A2),0)</f>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
@@ -438,23 +454,30 @@
       <c r="L2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A34" si="2">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A3),0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C3">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A3),0)</f>
+        <f t="shared" ref="C2:C33" si="3">ROUND($L$2*$L$4*$L$5*($L$3^A3),0)</f>
         <v>2</v>
       </c>
       <c r="D3">
-        <f>C3*$R$1</f>
+        <f t="shared" si="1"/>
         <v>400</v>
+      </c>
+      <c r="E3">
+        <f>ROUND($M$2*$M$4*$M$5*($M$3^A3),0)</f>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
@@ -465,23 +488,30 @@
       <c r="L3">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B4">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A4),0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C4">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A4),0)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D4">
-        <f>C4*$R$1</f>
+        <f t="shared" si="1"/>
         <v>400</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="4">ROUND($M$2*$M$4*$M$5*($M$3^A4),0)</f>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
@@ -492,23 +522,30 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A5),0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C5">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A5),0)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D5">
-        <f>C5*$R$1</f>
+        <f t="shared" si="1"/>
         <v>600</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
@@ -519,3533 +556,4320 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A6),0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C6">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A6),0)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D6">
-        <f>C6*$R$1</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A7),0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C7">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A7),0)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D7">
-        <f>C7*$R$1</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A8),0)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C8">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A8),0)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D8">
-        <f>C8*$R$1</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B9">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A9),0)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C9">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A9),0)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D9">
-        <f>C9*$R$1</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B10">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A10),0)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C10">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A10),0)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D10">
-        <f>C10*$R$1</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A11),0)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C11">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A11),0)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D11">
-        <f>C11*$R$1</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B12">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A12),0)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C12">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A12),0)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D12">
-        <f>C12*$R$1</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>A12+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B13">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A13),0)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C13">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A13),0)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D13">
-        <f>C13*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>A13+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A14),0)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C14">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A14),0)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D14">
-        <f>C14*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>A14+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A15),0)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C15">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A15),0)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D15">
-        <f>C15*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>A15+1</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B16">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A16),0)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C16">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A16),0)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D16">
-        <f>C16*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>A16+1</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B17">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A17),0)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="C17">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A17),0)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D17">
-        <f>C17*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>A17+1</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B18">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A18),0)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="C18">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A18),0)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D18">
-        <f>C18*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>A18+1</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B19">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A19),0)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C19">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A19),0)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D19">
-        <f>C19*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>A19+1</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B20">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A20),0)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="C20">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A20),0)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D20">
-        <f>C20*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>A20+1</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B21">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A21),0)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="C21">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A21),0)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D21">
-        <f>C21*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>A21+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B22">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A22),0)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="C22">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A22),0)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D22">
-        <f>C22*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>A22+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B23">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A23),0)</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="C23">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A23),0)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D23">
-        <f>C23*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>A23+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B24">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A24),0)</f>
+        <f t="shared" si="0"/>
         <v>136</v>
       </c>
       <c r="C24">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A24),0)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D24">
-        <f>C24*$R$1</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>A24+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B25">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A25),0)</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="C25">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A25),0)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D25">
-        <f>C25*$R$1</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>A25+1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B26">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A26),0)</f>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="C26">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A26),0)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D26">
-        <f>C26*$R$1</f>
+        <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>A26+1</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B27">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A27),0)</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="C27">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A27),0)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D27">
-        <f>C27*$R$1</f>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>A27+1</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B28">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A28),0)</f>
+        <f t="shared" si="0"/>
         <v>213</v>
       </c>
       <c r="C28">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A28),0)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D28">
-        <f>C28*$R$1</f>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>A28+1</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B29">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A29),0)</f>
+        <f t="shared" si="0"/>
         <v>239</v>
       </c>
       <c r="C29">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A29),0)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D29">
-        <f>C29*$R$1</f>
+        <f t="shared" si="1"/>
         <v>2600</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>A29+1</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B30">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A30),0)</f>
+        <f t="shared" si="0"/>
         <v>267</v>
       </c>
       <c r="C30">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A30),0)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D30">
-        <f>C30*$R$1</f>
+        <f t="shared" si="1"/>
         <v>2800</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>A30+1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B31">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A31),0)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="C31">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A31),0)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D31">
-        <f>C31*$R$1</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>A31+1</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B32">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A32),0)</f>
+        <f t="shared" si="0"/>
         <v>336</v>
       </c>
       <c r="C32">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A32),0)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D32">
-        <f>C32*$R$1</f>
+        <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>A32+1</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B33">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A33),0)</f>
+        <f t="shared" si="0"/>
         <v>376</v>
       </c>
       <c r="C33">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A33),0)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="D33">
-        <f>C33*$R$1</f>
+        <f t="shared" si="1"/>
         <v>3400</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>A33+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B34">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A34),0)</f>
+        <f t="shared" ref="B34:B65" si="5">ROUND($K$2*$K$4*$K$5*($K$3^A34),0)</f>
         <v>421</v>
       </c>
       <c r="C34">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A34),0)</f>
+        <f t="shared" ref="C34:C65" si="6">ROUND($L$2*$L$4*$L$5*($L$3^A34),0)</f>
         <v>19</v>
       </c>
       <c r="D34">
-        <f>C34*$R$1</f>
+        <f t="shared" ref="D34:D65" si="7">C34*$R$1</f>
         <v>3800</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>A34+1</f>
+        <f t="shared" ref="A35:A66" si="8">A34+1</f>
         <v>34</v>
       </c>
       <c r="B35">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A35),0)</f>
+        <f t="shared" si="5"/>
         <v>471</v>
       </c>
       <c r="C35">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A35),0)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="D35">
-        <f>C35*$R$1</f>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>A35+1</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="B36">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A36),0)</f>
+        <f t="shared" si="5"/>
         <v>528</v>
       </c>
       <c r="C36">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A36),0)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="D36">
-        <f>C36*$R$1</f>
+        <f t="shared" si="7"/>
         <v>4200</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>A36+1</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="B37">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A37),0)</f>
+        <f t="shared" si="5"/>
         <v>591</v>
       </c>
       <c r="C37">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A37),0)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="D37">
-        <f>C37*$R$1</f>
+        <f t="shared" si="7"/>
         <v>4600</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>A37+1</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="B38">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A38),0)</f>
+        <f t="shared" si="5"/>
         <v>662</v>
       </c>
       <c r="C38">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A38),0)</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="D38">
-        <f>C38*$R$1</f>
+        <f t="shared" si="7"/>
         <v>4800</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>A38+1</f>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="B39">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A39),0)</f>
+        <f t="shared" si="5"/>
         <v>742</v>
       </c>
       <c r="C39">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A39),0)</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D39">
-        <f>C39*$R$1</f>
+        <f t="shared" si="7"/>
         <v>5200</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>A39+1</f>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="B40">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A40),0)</f>
+        <f t="shared" si="5"/>
         <v>831</v>
       </c>
       <c r="C40">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A40),0)</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="D40">
-        <f>C40*$R$1</f>
+        <f t="shared" si="7"/>
         <v>5600</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>A40+1</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="B41">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A41),0)</f>
+        <f t="shared" si="5"/>
         <v>931</v>
       </c>
       <c r="C41">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A41),0)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="D41">
-        <f>C41*$R$1</f>
+        <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>A41+1</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="B42">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A42),0)</f>
+        <f t="shared" si="5"/>
         <v>1042</v>
       </c>
       <c r="C42">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A42),0)</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="D42">
-        <f>C42*$R$1</f>
+        <f t="shared" si="7"/>
         <v>6400</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>A42+1</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="B43">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A43),0)</f>
+        <f t="shared" si="5"/>
         <v>1167</v>
       </c>
       <c r="C43">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A43),0)</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="D43">
-        <f>C43*$R$1</f>
+        <f t="shared" si="7"/>
         <v>6800</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>A43+1</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="B44">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A44),0)</f>
+        <f t="shared" si="5"/>
         <v>1307</v>
       </c>
       <c r="C44">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A44),0)</f>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="D44">
-        <f>C44*$R$1</f>
+        <f t="shared" si="7"/>
         <v>7400</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>A44+1</f>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="B45">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A45),0)</f>
+        <f t="shared" si="5"/>
         <v>1464</v>
       </c>
       <c r="C45">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A45),0)</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="D45">
-        <f>C45*$R$1</f>
+        <f t="shared" si="7"/>
         <v>7800</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>A45+1</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="B46">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A46),0)</f>
+        <f t="shared" si="5"/>
         <v>1640</v>
       </c>
       <c r="C46">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A46),0)</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="D46">
-        <f>C46*$R$1</f>
+        <f t="shared" si="7"/>
         <v>8400</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>A46+1</f>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="B47">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A47),0)</f>
+        <f t="shared" si="5"/>
         <v>1837</v>
       </c>
       <c r="C47">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A47),0)</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="D47">
-        <f>C47*$R$1</f>
+        <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>A47+1</f>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="B48">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A48),0)</f>
+        <f t="shared" si="5"/>
         <v>2057</v>
       </c>
       <c r="C48">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A48),0)</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="D48">
-        <f>C48*$R$1</f>
+        <f t="shared" si="7"/>
         <v>9600</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>A48+1</f>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="B49">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A49),0)</f>
+        <f t="shared" si="5"/>
         <v>2304</v>
       </c>
       <c r="C49">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A49),0)</f>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="D49">
-        <f>C49*$R$1</f>
+        <f t="shared" si="7"/>
         <v>10200</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>A49+1</f>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="B50">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A50),0)</f>
+        <f t="shared" si="5"/>
         <v>2580</v>
       </c>
       <c r="C50">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A50),0)</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D50">
-        <f>C50*$R$1</f>
+        <f t="shared" si="7"/>
         <v>11000</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>A50+1</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="B51">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A51),0)</f>
+        <f t="shared" si="5"/>
         <v>2890</v>
       </c>
       <c r="C51">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A51),0)</f>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D51">
-        <f>C51*$R$1</f>
+        <f t="shared" si="7"/>
         <v>11800</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>A51+1</f>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="B52">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A52),0)</f>
+        <f t="shared" si="5"/>
         <v>3237</v>
       </c>
       <c r="C52">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A52),0)</f>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D52">
-        <f>C52*$R$1</f>
+        <f t="shared" si="7"/>
         <v>12600</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>A52+1</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="B53">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A53),0)</f>
+        <f t="shared" si="5"/>
         <v>3625</v>
       </c>
       <c r="C53">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A53),0)</f>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D53">
-        <f>C53*$R$1</f>
+        <f t="shared" si="7"/>
         <v>13400</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>A53+1</f>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="B54">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A54),0)</f>
+        <f t="shared" si="5"/>
         <v>4060</v>
       </c>
       <c r="C54">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A54),0)</f>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="D54">
-        <f>C54*$R$1</f>
+        <f t="shared" si="7"/>
         <v>14400</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>A54+1</f>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="B55">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A55),0)</f>
+        <f t="shared" si="5"/>
         <v>4548</v>
       </c>
       <c r="C55">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A55),0)</f>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="D55">
-        <f>C55*$R$1</f>
+        <f t="shared" si="7"/>
         <v>15400</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>A55+1</f>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="B56">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A56),0)</f>
+        <f t="shared" si="5"/>
         <v>5093</v>
       </c>
       <c r="C56">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A56),0)</f>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="D56">
-        <f>C56*$R$1</f>
+        <f t="shared" si="7"/>
         <v>16600</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>A56+1</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="B57">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A57),0)</f>
+        <f t="shared" si="5"/>
         <v>5704</v>
       </c>
       <c r="C57">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A57),0)</f>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="D57">
-        <f>C57*$R$1</f>
+        <f t="shared" si="7"/>
         <v>17600</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>A57+1</f>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="B58">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A58),0)</f>
+        <f t="shared" si="5"/>
         <v>6389</v>
       </c>
       <c r="C58">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A58),0)</f>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="D58">
-        <f>C58*$R$1</f>
+        <f t="shared" si="7"/>
         <v>19000</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>A58+1</f>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="B59">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A59),0)</f>
+        <f t="shared" si="5"/>
         <v>7156</v>
       </c>
       <c r="C59">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A59),0)</f>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="D59">
-        <f>C59*$R$1</f>
+        <f t="shared" si="7"/>
         <v>20200</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>A59+1</f>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="B60">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A60),0)</f>
+        <f t="shared" si="5"/>
         <v>8014</v>
       </c>
       <c r="C60">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A60),0)</f>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="D60">
-        <f>C60*$R$1</f>
+        <f t="shared" si="7"/>
         <v>21600</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>A60+1</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="B61">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A61),0)</f>
+        <f t="shared" si="5"/>
         <v>8976</v>
       </c>
       <c r="C61">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A61),0)</f>
+        <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="D61">
-        <f>C61*$R$1</f>
+        <f t="shared" si="7"/>
         <v>23200</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>A61+1</f>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="B62">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A62),0)</f>
+        <f t="shared" si="5"/>
         <v>10053</v>
       </c>
       <c r="C62">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A62),0)</f>
+        <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="D62">
-        <f>C62*$R$1</f>
+        <f t="shared" si="7"/>
         <v>24800</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>A62+1</f>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="B63">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A63),0)</f>
+        <f t="shared" si="5"/>
         <v>11259</v>
       </c>
       <c r="C63">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A63),0)</f>
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
       <c r="D63">
-        <f>C63*$R$1</f>
+        <f t="shared" si="7"/>
         <v>26600</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>A63+1</f>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="B64">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A64),0)</f>
+        <f t="shared" si="5"/>
         <v>12611</v>
       </c>
       <c r="C64">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A64),0)</f>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
       <c r="D64">
-        <f>C64*$R$1</f>
+        <f t="shared" si="7"/>
         <v>28400</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>A64+1</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="B65">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A65),0)</f>
+        <f t="shared" si="5"/>
         <v>14124</v>
       </c>
       <c r="C65">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A65),0)</f>
+        <f t="shared" si="6"/>
         <v>152</v>
       </c>
       <c r="D65">
-        <f>C65*$R$1</f>
+        <f t="shared" si="7"/>
         <v>30400</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>A65+1</f>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="B66">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A66),0)</f>
+        <f t="shared" ref="B66:B97" si="9">ROUND($K$2*$K$4*$K$5*($K$3^A66),0)</f>
         <v>15819</v>
       </c>
       <c r="C66">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A66),0)</f>
+        <f t="shared" ref="C66:C97" si="10">ROUND($L$2*$L$4*$L$5*($L$3^A66),0)</f>
         <v>163</v>
       </c>
       <c r="D66">
-        <f>C66*$R$1</f>
+        <f t="shared" ref="D66:D97" si="11">C66*$R$1</f>
         <v>32600</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>A66+1</f>
+        <f t="shared" ref="A67:A98" si="12">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A67),0)</f>
+        <f t="shared" si="9"/>
         <v>17717</v>
       </c>
       <c r="C67">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A67),0)</f>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
       <c r="D67">
-        <f>C67*$R$1</f>
+        <f t="shared" si="11"/>
         <v>34800</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>A67+1</f>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="B68">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A68),0)</f>
+        <f t="shared" si="9"/>
         <v>19843</v>
       </c>
       <c r="C68">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A68),0)</f>
+        <f t="shared" si="10"/>
         <v>186</v>
       </c>
       <c r="D68">
-        <f>C68*$R$1</f>
+        <f t="shared" si="11"/>
         <v>37200</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <f t="shared" ref="E68:E131" si="13">ROUND($M$2*$M$4*$M$5*($M$3^A68),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>A68+1</f>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="B69">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A69),0)</f>
+        <f t="shared" si="9"/>
         <v>22224</v>
       </c>
       <c r="C69">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A69),0)</f>
+        <f t="shared" si="10"/>
         <v>199</v>
       </c>
       <c r="D69">
-        <f>C69*$R$1</f>
+        <f t="shared" si="11"/>
         <v>39800</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>A69+1</f>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="B70">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A70),0)</f>
+        <f t="shared" si="9"/>
         <v>24891</v>
       </c>
       <c r="C70">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A70),0)</f>
+        <f t="shared" si="10"/>
         <v>213</v>
       </c>
       <c r="D70">
-        <f>C70*$R$1</f>
+        <f t="shared" si="11"/>
         <v>42600</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>A70+1</f>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="B71">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A71),0)</f>
+        <f t="shared" si="9"/>
         <v>27878</v>
       </c>
       <c r="C71">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A71),0)</f>
+        <f t="shared" si="10"/>
         <v>228</v>
       </c>
       <c r="D71">
-        <f>C71*$R$1</f>
+        <f t="shared" si="11"/>
         <v>45600</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>A71+1</f>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="B72">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A72),0)</f>
+        <f t="shared" si="9"/>
         <v>31223</v>
       </c>
       <c r="C72">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A72),0)</f>
+        <f t="shared" si="10"/>
         <v>244</v>
       </c>
       <c r="D72">
-        <f>C72*$R$1</f>
+        <f t="shared" si="11"/>
         <v>48800</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>A72+1</f>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="B73">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A73),0)</f>
+        <f t="shared" si="9"/>
         <v>34970</v>
       </c>
       <c r="C73">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A73),0)</f>
+        <f t="shared" si="10"/>
         <v>261</v>
       </c>
       <c r="D73">
-        <f>C73*$R$1</f>
+        <f t="shared" si="11"/>
         <v>52200</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>A73+1</f>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
       <c r="B74">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A74),0)</f>
+        <f t="shared" si="9"/>
         <v>39167</v>
       </c>
       <c r="C74">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A74),0)</f>
+        <f t="shared" si="10"/>
         <v>279</v>
       </c>
       <c r="D74">
-        <f>C74*$R$1</f>
+        <f t="shared" si="11"/>
         <v>55800</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>A74+1</f>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
       <c r="B75">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A75),0)</f>
+        <f t="shared" si="9"/>
         <v>43867</v>
       </c>
       <c r="C75">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A75),0)</f>
+        <f t="shared" si="10"/>
         <v>299</v>
       </c>
       <c r="D75">
-        <f>C75*$R$1</f>
+        <f t="shared" si="11"/>
         <v>59800</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f>A75+1</f>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="B76">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A76),0)</f>
+        <f t="shared" si="9"/>
         <v>49131</v>
       </c>
       <c r="C76">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A76),0)</f>
+        <f t="shared" si="10"/>
         <v>320</v>
       </c>
       <c r="D76">
-        <f>C76*$R$1</f>
+        <f t="shared" si="11"/>
         <v>64000</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f>A76+1</f>
+        <f t="shared" si="12"/>
         <v>76</v>
       </c>
       <c r="B77">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A77),0)</f>
+        <f t="shared" si="9"/>
         <v>55026</v>
       </c>
       <c r="C77">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A77),0)</f>
+        <f t="shared" si="10"/>
         <v>342</v>
       </c>
       <c r="D77">
-        <f>C77*$R$1</f>
+        <f t="shared" si="11"/>
         <v>68400</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f>A77+1</f>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="B78">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A78),0)</f>
+        <f t="shared" si="9"/>
         <v>61629</v>
       </c>
       <c r="C78">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A78),0)</f>
+        <f t="shared" si="10"/>
         <v>366</v>
       </c>
       <c r="D78">
-        <f>C78*$R$1</f>
+        <f t="shared" si="11"/>
         <v>73200</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f>A78+1</f>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="B79">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A79),0)</f>
+        <f t="shared" si="9"/>
         <v>69025</v>
       </c>
       <c r="C79">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A79),0)</f>
+        <f t="shared" si="10"/>
         <v>392</v>
       </c>
       <c r="D79">
-        <f>C79*$R$1</f>
+        <f t="shared" si="11"/>
         <v>78400</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f>A79+1</f>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="B80">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A80),0)</f>
+        <f t="shared" si="9"/>
         <v>77308</v>
       </c>
       <c r="C80">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A80),0)</f>
+        <f t="shared" si="10"/>
         <v>419</v>
       </c>
       <c r="D80">
-        <f>C80*$R$1</f>
+        <f t="shared" si="11"/>
         <v>83800</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f>A80+1</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="B81">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A81),0)</f>
+        <f t="shared" si="9"/>
         <v>86585</v>
       </c>
       <c r="C81">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A81),0)</f>
+        <f t="shared" si="10"/>
         <v>448</v>
       </c>
       <c r="D81">
-        <f>C81*$R$1</f>
+        <f t="shared" si="11"/>
         <v>89600</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f>A81+1</f>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="B82">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A82),0)</f>
+        <f t="shared" si="9"/>
         <v>96975</v>
       </c>
       <c r="C82">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A82),0)</f>
+        <f t="shared" si="10"/>
         <v>480</v>
       </c>
       <c r="D82">
-        <f>C82*$R$1</f>
+        <f t="shared" si="11"/>
         <v>96000</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f>A82+1</f>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="B83">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A83),0)</f>
+        <f t="shared" si="9"/>
         <v>108612</v>
       </c>
       <c r="C83">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A83),0)</f>
+        <f t="shared" si="10"/>
         <v>513</v>
       </c>
       <c r="D83">
-        <f>C83*$R$1</f>
+        <f t="shared" si="11"/>
         <v>102600</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f>A83+1</f>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="B84">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A84),0)</f>
+        <f t="shared" si="9"/>
         <v>121645</v>
       </c>
       <c r="C84">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A84),0)</f>
+        <f t="shared" si="10"/>
         <v>549</v>
       </c>
       <c r="D84">
-        <f>C84*$R$1</f>
+        <f t="shared" si="11"/>
         <v>109800</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f>A84+1</f>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="B85">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A85),0)</f>
+        <f t="shared" si="9"/>
         <v>136243</v>
       </c>
       <c r="C85">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A85),0)</f>
+        <f t="shared" si="10"/>
         <v>588</v>
       </c>
       <c r="D85">
-        <f>C85*$R$1</f>
+        <f t="shared" si="11"/>
         <v>117600</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f>A85+1</f>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="B86">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A86),0)</f>
+        <f t="shared" si="9"/>
         <v>152592</v>
       </c>
       <c r="C86">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A86),0)</f>
+        <f t="shared" si="10"/>
         <v>629</v>
       </c>
       <c r="D86">
-        <f>C86*$R$1</f>
+        <f t="shared" si="11"/>
         <v>125800</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f>A86+1</f>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="B87">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A87),0)</f>
+        <f t="shared" si="9"/>
         <v>170903</v>
       </c>
       <c r="C87">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A87),0)</f>
+        <f t="shared" si="10"/>
         <v>673</v>
       </c>
       <c r="D87">
-        <f>C87*$R$1</f>
+        <f t="shared" si="11"/>
         <v>134600</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f>A87+1</f>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="B88">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A88),0)</f>
+        <f t="shared" si="9"/>
         <v>191411</v>
       </c>
       <c r="C88">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A88),0)</f>
+        <f t="shared" si="10"/>
         <v>720</v>
       </c>
       <c r="D88">
-        <f>C88*$R$1</f>
+        <f t="shared" si="11"/>
         <v>144000</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f>A88+1</f>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="B89">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A89),0)</f>
+        <f t="shared" si="9"/>
         <v>214381</v>
       </c>
       <c r="C89">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A89),0)</f>
+        <f t="shared" si="10"/>
         <v>771</v>
       </c>
       <c r="D89">
-        <f>C89*$R$1</f>
+        <f t="shared" si="11"/>
         <v>154200</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f>A89+1</f>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="B90">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A90),0)</f>
+        <f t="shared" si="9"/>
         <v>240107</v>
       </c>
       <c r="C90">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A90),0)</f>
+        <f t="shared" si="10"/>
         <v>824</v>
       </c>
       <c r="D90">
-        <f>C90*$R$1</f>
+        <f t="shared" si="11"/>
         <v>164800</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f>A90+1</f>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="B91">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A91),0)</f>
+        <f t="shared" si="9"/>
         <v>268919</v>
       </c>
       <c r="C91">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A91),0)</f>
+        <f t="shared" si="10"/>
         <v>882</v>
       </c>
       <c r="D91">
-        <f>C91*$R$1</f>
+        <f t="shared" si="11"/>
         <v>176400</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f>A91+1</f>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="B92">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A92),0)</f>
+        <f t="shared" si="9"/>
         <v>301190</v>
       </c>
       <c r="C92">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A92),0)</f>
+        <f t="shared" si="10"/>
         <v>944</v>
       </c>
       <c r="D92">
-        <f>C92*$R$1</f>
+        <f t="shared" si="11"/>
         <v>188800</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f>A92+1</f>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="B93">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A93),0)</f>
+        <f t="shared" si="9"/>
         <v>337332</v>
       </c>
       <c r="C93">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A93),0)</f>
+        <f t="shared" si="10"/>
         <v>1010</v>
       </c>
       <c r="D93">
-        <f>C93*$R$1</f>
+        <f t="shared" si="11"/>
         <v>202000</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f>A93+1</f>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="B94">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A94),0)</f>
+        <f t="shared" si="9"/>
         <v>377812</v>
       </c>
       <c r="C94">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A94),0)</f>
+        <f t="shared" si="10"/>
         <v>1081</v>
       </c>
       <c r="D94">
-        <f>C94*$R$1</f>
+        <f t="shared" si="11"/>
         <v>216200</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f>A94+1</f>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="B95">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A95),0)</f>
+        <f t="shared" si="9"/>
         <v>423150</v>
       </c>
       <c r="C95">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A95),0)</f>
+        <f t="shared" si="10"/>
         <v>1156</v>
       </c>
       <c r="D95">
-        <f>C95*$R$1</f>
+        <f t="shared" si="11"/>
         <v>231200</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f>A95+1</f>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="B96">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A96),0)</f>
+        <f t="shared" si="9"/>
         <v>473928</v>
       </c>
       <c r="C96">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A96),0)</f>
+        <f t="shared" si="10"/>
         <v>1237</v>
       </c>
       <c r="D96">
-        <f>C96*$R$1</f>
+        <f t="shared" si="11"/>
         <v>247400</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f>A96+1</f>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="B97">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A97),0)</f>
+        <f t="shared" si="9"/>
         <v>530799</v>
       </c>
       <c r="C97">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A97),0)</f>
+        <f t="shared" si="10"/>
         <v>1324</v>
       </c>
       <c r="D97">
-        <f>C97*$R$1</f>
+        <f t="shared" si="11"/>
         <v>264800</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f>A97+1</f>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="B98">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A98),0)</f>
+        <f t="shared" ref="B98:B129" si="14">ROUND($K$2*$K$4*$K$5*($K$3^A98),0)</f>
         <v>594495</v>
       </c>
       <c r="C98">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A98),0)</f>
+        <f t="shared" ref="C98:C129" si="15">ROUND($L$2*$L$4*$L$5*($L$3^A98),0)</f>
         <v>1417</v>
       </c>
       <c r="D98">
-        <f>C98*$R$1</f>
+        <f t="shared" ref="D98:D129" si="16">C98*$R$1</f>
         <v>283400</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f>A98+1</f>
+        <f t="shared" ref="A99:A130" si="17">A98+1</f>
         <v>98</v>
       </c>
       <c r="B99">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A99),0)</f>
+        <f t="shared" si="14"/>
         <v>665834</v>
       </c>
       <c r="C99">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A99),0)</f>
+        <f t="shared" si="15"/>
         <v>1516</v>
       </c>
       <c r="D99">
-        <f>C99*$R$1</f>
+        <f t="shared" si="16"/>
         <v>303200</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f>A99+1</f>
+        <f t="shared" si="17"/>
         <v>99</v>
       </c>
       <c r="B100">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A100),0)</f>
+        <f t="shared" si="14"/>
         <v>745735</v>
       </c>
       <c r="C100">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A100),0)</f>
+        <f t="shared" si="15"/>
         <v>1622</v>
       </c>
       <c r="D100">
-        <f>C100*$R$1</f>
+        <f t="shared" si="16"/>
         <v>324400</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f>A100+1</f>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="B101">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A101),0)</f>
+        <f t="shared" si="14"/>
         <v>835223</v>
       </c>
       <c r="C101">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A101),0)</f>
+        <f t="shared" si="15"/>
         <v>1735</v>
       </c>
       <c r="D101">
-        <f>C101*$R$1</f>
+        <f t="shared" si="16"/>
         <v>347000</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f>A101+1</f>
+        <f t="shared" si="17"/>
         <v>101</v>
       </c>
       <c r="B102">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A102),0)</f>
+        <f t="shared" si="14"/>
         <v>935449</v>
       </c>
       <c r="C102">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A102),0)</f>
+        <f t="shared" si="15"/>
         <v>1857</v>
       </c>
       <c r="D102">
-        <f>C102*$R$1</f>
+        <f t="shared" si="16"/>
         <v>371400</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f>A102+1</f>
+        <f t="shared" si="17"/>
         <v>102</v>
       </c>
       <c r="B103">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A103),0)</f>
+        <f t="shared" si="14"/>
         <v>1047703</v>
       </c>
       <c r="C103">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A103),0)</f>
+        <f t="shared" si="15"/>
         <v>1987</v>
       </c>
       <c r="D103">
-        <f>C103*$R$1</f>
+        <f t="shared" si="16"/>
         <v>397400</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f>A103+1</f>
+        <f t="shared" si="17"/>
         <v>103</v>
       </c>
       <c r="B104">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A104),0)</f>
+        <f t="shared" si="14"/>
         <v>1173428</v>
       </c>
       <c r="C104">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A104),0)</f>
+        <f t="shared" si="15"/>
         <v>2126</v>
       </c>
       <c r="D104">
-        <f>C104*$R$1</f>
+        <f t="shared" si="16"/>
         <v>425200</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f>A104+1</f>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="B105">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A105),0)</f>
+        <f t="shared" si="14"/>
         <v>1314239</v>
       </c>
       <c r="C105">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A105),0)</f>
+        <f t="shared" si="15"/>
         <v>2275</v>
       </c>
       <c r="D105">
-        <f>C105*$R$1</f>
+        <f t="shared" si="16"/>
         <v>455000</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f>A105+1</f>
+        <f t="shared" si="17"/>
         <v>105</v>
       </c>
       <c r="B106">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A106),0)</f>
+        <f t="shared" si="14"/>
         <v>1471948</v>
       </c>
       <c r="C106">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A106),0)</f>
+        <f t="shared" si="15"/>
         <v>2434</v>
       </c>
       <c r="D106">
-        <f>C106*$R$1</f>
+        <f t="shared" si="16"/>
         <v>486800</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f>A106+1</f>
+        <f t="shared" si="17"/>
         <v>106</v>
       </c>
       <c r="B107">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A107),0)</f>
+        <f t="shared" si="14"/>
         <v>1648581</v>
       </c>
       <c r="C107">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A107),0)</f>
+        <f t="shared" si="15"/>
         <v>2604</v>
       </c>
       <c r="D107">
-        <f>C107*$R$1</f>
+        <f t="shared" si="16"/>
         <v>520800</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f>A107+1</f>
+        <f t="shared" si="17"/>
         <v>107</v>
       </c>
       <c r="B108">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A108),0)</f>
+        <f t="shared" si="14"/>
         <v>1846411</v>
       </c>
       <c r="C108">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A108),0)</f>
+        <f t="shared" si="15"/>
         <v>2787</v>
       </c>
       <c r="D108">
-        <f>C108*$R$1</f>
+        <f t="shared" si="16"/>
         <v>557400</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f>A108+1</f>
+        <f t="shared" si="17"/>
         <v>108</v>
       </c>
       <c r="B109">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A109),0)</f>
+        <f t="shared" si="14"/>
         <v>2067981</v>
       </c>
       <c r="C109">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A109),0)</f>
+        <f t="shared" si="15"/>
         <v>2982</v>
       </c>
       <c r="D109">
-        <f>C109*$R$1</f>
+        <f t="shared" si="16"/>
         <v>596400</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f>A109+1</f>
+        <f t="shared" si="17"/>
         <v>109</v>
       </c>
       <c r="B110">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A110),0)</f>
+        <f t="shared" si="14"/>
         <v>2316138</v>
       </c>
       <c r="C110">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A110),0)</f>
+        <f t="shared" si="15"/>
         <v>3191</v>
       </c>
       <c r="D110">
-        <f>C110*$R$1</f>
+        <f t="shared" si="16"/>
         <v>638200</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f>A110+1</f>
+        <f t="shared" si="17"/>
         <v>110</v>
       </c>
       <c r="B111">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A111),0)</f>
+        <f t="shared" si="14"/>
         <v>2594075</v>
       </c>
       <c r="C111">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A111),0)</f>
+        <f t="shared" si="15"/>
         <v>3414</v>
       </c>
       <c r="D111">
-        <f>C111*$R$1</f>
+        <f t="shared" si="16"/>
         <v>682800</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f>A111+1</f>
+        <f t="shared" si="17"/>
         <v>111</v>
       </c>
       <c r="B112">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A112),0)</f>
+        <f t="shared" si="14"/>
         <v>2905364</v>
       </c>
       <c r="C112">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A112),0)</f>
+        <f t="shared" si="15"/>
         <v>3653</v>
       </c>
       <c r="D112">
-        <f>C112*$R$1</f>
+        <f t="shared" si="16"/>
         <v>730600</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f>A112+1</f>
+        <f t="shared" si="17"/>
         <v>112</v>
       </c>
       <c r="B113">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A113),0)</f>
+        <f t="shared" si="14"/>
         <v>3254007</v>
       </c>
       <c r="C113">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A113),0)</f>
+        <f t="shared" si="15"/>
         <v>3909</v>
       </c>
       <c r="D113">
-        <f>C113*$R$1</f>
+        <f t="shared" si="16"/>
         <v>781800</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f>A113+1</f>
+        <f t="shared" si="17"/>
         <v>113</v>
       </c>
       <c r="B114">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A114),0)</f>
+        <f t="shared" si="14"/>
         <v>3644488</v>
       </c>
       <c r="C114">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A114),0)</f>
+        <f t="shared" si="15"/>
         <v>4182</v>
       </c>
       <c r="D114">
-        <f>C114*$R$1</f>
+        <f t="shared" si="16"/>
         <v>836400</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f>A114+1</f>
+        <f t="shared" si="17"/>
         <v>114</v>
       </c>
       <c r="B115">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A115),0)</f>
+        <f t="shared" si="14"/>
         <v>4081827</v>
       </c>
       <c r="C115">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A115),0)</f>
+        <f t="shared" si="15"/>
         <v>4475</v>
       </c>
       <c r="D115">
-        <f>C115*$R$1</f>
+        <f t="shared" si="16"/>
         <v>895000</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f>A115+1</f>
+        <f t="shared" si="17"/>
         <v>115</v>
       </c>
       <c r="B116">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A116),0)</f>
+        <f t="shared" si="14"/>
         <v>4571646</v>
       </c>
       <c r="C116">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A116),0)</f>
+        <f t="shared" si="15"/>
         <v>4788</v>
       </c>
       <c r="D116">
-        <f>C116*$R$1</f>
+        <f t="shared" si="16"/>
         <v>957600</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f>A116+1</f>
+        <f t="shared" si="17"/>
         <v>116</v>
       </c>
       <c r="B117">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A117),0)</f>
+        <f t="shared" si="14"/>
         <v>5120244</v>
       </c>
       <c r="C117">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A117),0)</f>
+        <f t="shared" si="15"/>
         <v>5123</v>
       </c>
       <c r="D117">
-        <f>C117*$R$1</f>
+        <f t="shared" si="16"/>
         <v>1024600</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f>A117+1</f>
+        <f t="shared" si="17"/>
         <v>117</v>
       </c>
       <c r="B118">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A118),0)</f>
+        <f t="shared" si="14"/>
         <v>5734673</v>
       </c>
       <c r="C118">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A118),0)</f>
+        <f t="shared" si="15"/>
         <v>5482</v>
       </c>
       <c r="D118">
-        <f>C118*$R$1</f>
+        <f t="shared" si="16"/>
         <v>1096400</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f>A118+1</f>
+        <f t="shared" si="17"/>
         <v>118</v>
       </c>
       <c r="B119">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A119),0)</f>
+        <f t="shared" si="14"/>
         <v>6422834</v>
       </c>
       <c r="C119">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A119),0)</f>
+        <f t="shared" si="15"/>
         <v>5866</v>
       </c>
       <c r="D119">
-        <f>C119*$R$1</f>
+        <f t="shared" si="16"/>
         <v>1173200</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f>A119+1</f>
+        <f t="shared" si="17"/>
         <v>119</v>
       </c>
       <c r="B120">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A120),0)</f>
+        <f t="shared" si="14"/>
         <v>7193574</v>
       </c>
       <c r="C120">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A120),0)</f>
+        <f t="shared" si="15"/>
         <v>6276</v>
       </c>
       <c r="D120">
-        <f>C120*$R$1</f>
+        <f t="shared" si="16"/>
         <v>1255200</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f>A120+1</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="B121">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A121),0)</f>
+        <f t="shared" si="14"/>
         <v>8056803</v>
       </c>
       <c r="C121">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A121),0)</f>
+        <f t="shared" si="15"/>
         <v>6716</v>
       </c>
       <c r="D121">
-        <f>C121*$R$1</f>
+        <f t="shared" si="16"/>
         <v>1343200</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f>A121+1</f>
+        <f t="shared" si="17"/>
         <v>121</v>
       </c>
       <c r="B122">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A122),0)</f>
+        <f t="shared" si="14"/>
         <v>9023619</v>
       </c>
       <c r="C122">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A122),0)</f>
+        <f t="shared" si="15"/>
         <v>7186</v>
       </c>
       <c r="D122">
-        <f>C122*$R$1</f>
+        <f t="shared" si="16"/>
         <v>1437200</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f>A122+1</f>
+        <f t="shared" si="17"/>
         <v>122</v>
       </c>
       <c r="B123">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A123),0)</f>
+        <f t="shared" si="14"/>
         <v>10106453</v>
       </c>
       <c r="C123">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A123),0)</f>
+        <f t="shared" si="15"/>
         <v>7689</v>
       </c>
       <c r="D123">
-        <f>C123*$R$1</f>
+        <f t="shared" si="16"/>
         <v>1537800</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f>A123+1</f>
+        <f t="shared" si="17"/>
         <v>123</v>
       </c>
       <c r="B124">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A124),0)</f>
+        <f t="shared" si="14"/>
         <v>11319227</v>
       </c>
       <c r="C124">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A124),0)</f>
+        <f t="shared" si="15"/>
         <v>8227</v>
       </c>
       <c r="D124">
-        <f>C124*$R$1</f>
+        <f t="shared" si="16"/>
         <v>1645400</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f>A124+1</f>
+        <f t="shared" si="17"/>
         <v>124</v>
       </c>
       <c r="B125">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A125),0)</f>
+        <f t="shared" si="14"/>
         <v>12677535</v>
       </c>
       <c r="C125">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A125),0)</f>
+        <f t="shared" si="15"/>
         <v>8803</v>
       </c>
       <c r="D125">
-        <f>C125*$R$1</f>
+        <f t="shared" si="16"/>
         <v>1760600</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f>A125+1</f>
+        <f t="shared" si="17"/>
         <v>125</v>
       </c>
       <c r="B126">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A126),0)</f>
+        <f t="shared" si="14"/>
         <v>14198839</v>
       </c>
       <c r="C126">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A126),0)</f>
+        <f t="shared" si="15"/>
         <v>9419</v>
       </c>
       <c r="D126">
-        <f>C126*$R$1</f>
+        <f t="shared" si="16"/>
         <v>1883800</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f>A126+1</f>
+        <f t="shared" si="17"/>
         <v>126</v>
       </c>
       <c r="B127">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A127),0)</f>
+        <f t="shared" si="14"/>
         <v>15902700</v>
       </c>
       <c r="C127">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A127),0)</f>
+        <f t="shared" si="15"/>
         <v>10078</v>
       </c>
       <c r="D127">
-        <f>C127*$R$1</f>
+        <f t="shared" si="16"/>
         <v>2015600</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f>A127+1</f>
+        <f t="shared" si="17"/>
         <v>127</v>
       </c>
       <c r="B128">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A128),0)</f>
+        <f t="shared" si="14"/>
         <v>17811024</v>
       </c>
       <c r="C128">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A128),0)</f>
+        <f t="shared" si="15"/>
         <v>10784</v>
       </c>
       <c r="D128">
-        <f>C128*$R$1</f>
+        <f t="shared" si="16"/>
         <v>2156800</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f>A128+1</f>
+        <f t="shared" si="17"/>
         <v>128</v>
       </c>
       <c r="B129">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A129),0)</f>
+        <f t="shared" si="14"/>
         <v>19948346</v>
       </c>
       <c r="C129">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A129),0)</f>
+        <f t="shared" si="15"/>
         <v>11539</v>
       </c>
       <c r="D129">
-        <f>C129*$R$1</f>
+        <f t="shared" si="16"/>
         <v>2307800</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f>A129+1</f>
+        <f t="shared" si="17"/>
         <v>129</v>
       </c>
       <c r="B130">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A130),0)</f>
+        <f t="shared" ref="B130:B161" si="18">ROUND($K$2*$K$4*$K$5*($K$3^A130),0)</f>
         <v>22342148</v>
       </c>
       <c r="C130">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A130),0)</f>
+        <f t="shared" ref="C130:C161" si="19">ROUND($L$2*$L$4*$L$5*($L$3^A130),0)</f>
         <v>12346</v>
       </c>
       <c r="D130">
-        <f>C130*$R$1</f>
+        <f t="shared" ref="D130:D161" si="20">C130*$R$1</f>
         <v>2469200</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f>A130+1</f>
+        <f t="shared" ref="A131:A162" si="21">A130+1</f>
         <v>130</v>
       </c>
       <c r="B131">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A131),0)</f>
+        <f t="shared" si="18"/>
         <v>25023206</v>
       </c>
       <c r="C131">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A131),0)</f>
+        <f t="shared" si="19"/>
         <v>13211</v>
       </c>
       <c r="D131">
-        <f>C131*$R$1</f>
+        <f t="shared" si="20"/>
         <v>2642200</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f>A131+1</f>
+        <f t="shared" si="21"/>
         <v>131</v>
       </c>
       <c r="B132">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A132),0)</f>
+        <f t="shared" si="18"/>
         <v>28025990</v>
       </c>
       <c r="C132">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A132),0)</f>
+        <f t="shared" si="19"/>
         <v>14135</v>
       </c>
       <c r="D132">
-        <f>C132*$R$1</f>
+        <f t="shared" si="20"/>
         <v>2827000</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <f t="shared" ref="E132:E195" si="22">ROUND($M$2*$M$4*$M$5*($M$3^A132),0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f>A132+1</f>
+        <f t="shared" si="21"/>
         <v>132</v>
       </c>
       <c r="B133">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A133),0)</f>
+        <f t="shared" si="18"/>
         <v>31389109</v>
       </c>
       <c r="C133">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A133),0)</f>
+        <f t="shared" si="19"/>
         <v>15125</v>
       </c>
       <c r="D133">
-        <f>C133*$R$1</f>
+        <f t="shared" si="20"/>
         <v>3025000</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f>A133+1</f>
+        <f t="shared" si="21"/>
         <v>133</v>
       </c>
       <c r="B134">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A134),0)</f>
+        <f t="shared" si="18"/>
         <v>35155802</v>
       </c>
       <c r="C134">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A134),0)</f>
+        <f t="shared" si="19"/>
         <v>16183</v>
       </c>
       <c r="D134">
-        <f>C134*$R$1</f>
+        <f t="shared" si="20"/>
         <v>3236600</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E134">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f>A134+1</f>
+        <f t="shared" si="21"/>
         <v>134</v>
       </c>
       <c r="B135">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A135),0)</f>
+        <f t="shared" si="18"/>
         <v>39374499</v>
       </c>
       <c r="C135">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A135),0)</f>
+        <f t="shared" si="19"/>
         <v>17316</v>
       </c>
       <c r="D135">
-        <f>C135*$R$1</f>
+        <f t="shared" si="20"/>
         <v>3463200</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E135">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f>A135+1</f>
+        <f t="shared" si="21"/>
         <v>135</v>
       </c>
       <c r="B136">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A136),0)</f>
+        <f t="shared" si="18"/>
         <v>44099439</v>
       </c>
       <c r="C136">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A136),0)</f>
+        <f t="shared" si="19"/>
         <v>18528</v>
       </c>
       <c r="D136">
-        <f>C136*$R$1</f>
+        <f t="shared" si="20"/>
         <v>3705600</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E136">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f>A136+1</f>
+        <f t="shared" si="21"/>
         <v>136</v>
       </c>
       <c r="B137">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A137),0)</f>
+        <f t="shared" si="18"/>
         <v>49391371</v>
       </c>
       <c r="C137">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A137),0)</f>
+        <f t="shared" si="19"/>
         <v>19825</v>
       </c>
       <c r="D137">
-        <f>C137*$R$1</f>
+        <f t="shared" si="20"/>
         <v>3965000</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E137">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f>A137+1</f>
+        <f t="shared" si="21"/>
         <v>137</v>
       </c>
       <c r="B138">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A138),0)</f>
+        <f t="shared" si="18"/>
         <v>55318336</v>
       </c>
       <c r="C138">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A138),0)</f>
+        <f t="shared" si="19"/>
         <v>21213</v>
       </c>
       <c r="D138">
-        <f>C138*$R$1</f>
+        <f t="shared" si="20"/>
         <v>4242600</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E138">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f>A138+1</f>
+        <f t="shared" si="21"/>
         <v>138</v>
       </c>
       <c r="B139">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A139),0)</f>
+        <f t="shared" si="18"/>
         <v>61956536</v>
       </c>
       <c r="C139">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A139),0)</f>
+        <f t="shared" si="19"/>
         <v>22698</v>
       </c>
       <c r="D139">
-        <f>C139*$R$1</f>
+        <f t="shared" si="20"/>
         <v>4539600</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E139">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f>A139+1</f>
+        <f t="shared" si="21"/>
         <v>139</v>
       </c>
       <c r="B140">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A140),0)</f>
+        <f t="shared" si="18"/>
         <v>69391320</v>
       </c>
       <c r="C140">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A140),0)</f>
+        <f t="shared" si="19"/>
         <v>24287</v>
       </c>
       <c r="D140">
-        <f>C140*$R$1</f>
+        <f t="shared" si="20"/>
         <v>4857400</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E140">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f>A140+1</f>
+        <f t="shared" si="21"/>
         <v>140</v>
       </c>
       <c r="B141">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A141),0)</f>
+        <f t="shared" si="18"/>
         <v>77718279</v>
       </c>
       <c r="C141">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A141),0)</f>
+        <f t="shared" si="19"/>
         <v>25987</v>
       </c>
       <c r="D141">
-        <f>C141*$R$1</f>
+        <f t="shared" si="20"/>
         <v>5197400</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E141">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f>A141+1</f>
+        <f t="shared" si="21"/>
         <v>141</v>
       </c>
       <c r="B142">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A142),0)</f>
+        <f t="shared" si="18"/>
         <v>87044472</v>
       </c>
       <c r="C142">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A142),0)</f>
+        <f t="shared" si="19"/>
         <v>27806</v>
       </c>
       <c r="D142">
-        <f>C142*$R$1</f>
+        <f t="shared" si="20"/>
         <v>5561200</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E142">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f>A142+1</f>
+        <f t="shared" si="21"/>
         <v>142</v>
       </c>
       <c r="B143">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A143),0)</f>
+        <f t="shared" si="18"/>
         <v>97489809</v>
       </c>
       <c r="C143">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A143),0)</f>
+        <f t="shared" si="19"/>
         <v>29753</v>
       </c>
       <c r="D143">
-        <f>C143*$R$1</f>
+        <f t="shared" si="20"/>
         <v>5950600</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E143">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f>A143+1</f>
+        <f t="shared" si="21"/>
         <v>143</v>
       </c>
       <c r="B144">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A144),0)</f>
+        <f t="shared" si="18"/>
         <v>109188586</v>
       </c>
       <c r="C144">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A144),0)</f>
+        <f t="shared" si="19"/>
         <v>31835</v>
       </c>
       <c r="D144">
-        <f>C144*$R$1</f>
+        <f t="shared" si="20"/>
         <v>6367000</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E144">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f>A144+1</f>
+        <f t="shared" si="21"/>
         <v>144</v>
       </c>
       <c r="B145">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A145),0)</f>
+        <f t="shared" si="18"/>
         <v>122291216</v>
       </c>
       <c r="C145">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A145),0)</f>
+        <f t="shared" si="19"/>
         <v>34064</v>
       </c>
       <c r="D145">
-        <f>C145*$R$1</f>
+        <f t="shared" si="20"/>
         <v>6812800</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E145">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f>A145+1</f>
+        <f t="shared" si="21"/>
         <v>145</v>
       </c>
       <c r="B146">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A146),0)</f>
+        <f t="shared" si="18"/>
         <v>136966162</v>
       </c>
       <c r="C146">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A146),0)</f>
+        <f t="shared" si="19"/>
         <v>36448</v>
       </c>
       <c r="D146">
-        <f>C146*$R$1</f>
+        <f t="shared" si="20"/>
         <v>7289600</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E146">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f>A146+1</f>
+        <f t="shared" si="21"/>
         <v>146</v>
       </c>
       <c r="B147">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A147),0)</f>
+        <f t="shared" si="18"/>
         <v>153402102</v>
       </c>
       <c r="C147">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A147),0)</f>
+        <f t="shared" si="19"/>
         <v>39000</v>
       </c>
       <c r="D147">
-        <f>C147*$R$1</f>
+        <f t="shared" si="20"/>
         <v>7800000</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E147">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f>A147+1</f>
+        <f t="shared" si="21"/>
         <v>147</v>
       </c>
       <c r="B148">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A148),0)</f>
+        <f t="shared" si="18"/>
         <v>171810354</v>
       </c>
       <c r="C148">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A148),0)</f>
+        <f t="shared" si="19"/>
         <v>41730</v>
       </c>
       <c r="D148">
-        <f>C148*$R$1</f>
+        <f t="shared" si="20"/>
         <v>8346000</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E148">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f>A148+1</f>
+        <f t="shared" si="21"/>
         <v>148</v>
       </c>
       <c r="B149">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A149),0)</f>
+        <f t="shared" si="18"/>
         <v>192427596</v>
       </c>
       <c r="C149">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A149),0)</f>
+        <f t="shared" si="19"/>
         <v>44651</v>
       </c>
       <c r="D149">
-        <f>C149*$R$1</f>
+        <f t="shared" si="20"/>
         <v>8930200</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E149">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f>A149+1</f>
+        <f t="shared" si="21"/>
         <v>149</v>
       </c>
       <c r="B150">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A150),0)</f>
+        <f t="shared" si="18"/>
         <v>215518908</v>
       </c>
       <c r="C150">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A150),0)</f>
+        <f t="shared" si="19"/>
         <v>47776</v>
       </c>
       <c r="D150">
-        <f>C150*$R$1</f>
+        <f t="shared" si="20"/>
         <v>9555200</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E150">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f>A150+1</f>
+        <f t="shared" si="21"/>
         <v>150</v>
       </c>
       <c r="B151">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A151),0)</f>
+        <f t="shared" si="18"/>
         <v>241381177</v>
       </c>
       <c r="C151">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A151),0)</f>
+        <f t="shared" si="19"/>
         <v>51121</v>
       </c>
       <c r="D151">
-        <f>C151*$R$1</f>
+        <f t="shared" si="20"/>
         <v>10224200</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f>A151+1</f>
+        <f t="shared" si="21"/>
         <v>151</v>
       </c>
       <c r="B152">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A152),0)</f>
+        <f t="shared" si="18"/>
         <v>270346918</v>
       </c>
       <c r="C152">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A152),0)</f>
+        <f t="shared" si="19"/>
         <v>54699</v>
       </c>
       <c r="D152">
-        <f>C152*$R$1</f>
+        <f t="shared" si="20"/>
         <v>10939800</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E152">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f>A152+1</f>
+        <f t="shared" si="21"/>
         <v>152</v>
       </c>
       <c r="B153">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A153),0)</f>
+        <f t="shared" si="18"/>
         <v>302788548</v>
       </c>
       <c r="C153">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A153),0)</f>
+        <f t="shared" si="19"/>
         <v>58528</v>
       </c>
       <c r="D153">
-        <f>C153*$R$1</f>
+        <f t="shared" si="20"/>
         <v>11705600</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E153">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f>A153+1</f>
+        <f t="shared" si="21"/>
         <v>153</v>
       </c>
       <c r="B154">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A154),0)</f>
+        <f t="shared" si="18"/>
         <v>339123174</v>
       </c>
       <c r="C154">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A154),0)</f>
+        <f t="shared" si="19"/>
         <v>62625</v>
       </c>
       <c r="D154">
-        <f>C154*$R$1</f>
+        <f t="shared" si="20"/>
         <v>12525000</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E154">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f>A154+1</f>
+        <f t="shared" si="21"/>
         <v>154</v>
       </c>
       <c r="B155">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A155),0)</f>
+        <f t="shared" si="18"/>
         <v>379817955</v>
       </c>
       <c r="C155">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A155),0)</f>
+        <f t="shared" si="19"/>
         <v>67009</v>
       </c>
       <c r="D155">
-        <f>C155*$R$1</f>
+        <f t="shared" si="20"/>
         <v>13401800</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E155">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f>A155+1</f>
+        <f t="shared" si="21"/>
         <v>155</v>
       </c>
       <c r="B156">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A156),0)</f>
+        <f t="shared" si="18"/>
         <v>425396110</v>
       </c>
       <c r="C156">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A156),0)</f>
+        <f t="shared" si="19"/>
         <v>71699</v>
       </c>
       <c r="D156">
-        <f>C156*$R$1</f>
+        <f t="shared" si="20"/>
         <v>14339800</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E156">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f>A156+1</f>
+        <f t="shared" si="21"/>
         <v>156</v>
       </c>
       <c r="B157">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A157),0)</f>
+        <f t="shared" si="18"/>
         <v>476443643</v>
       </c>
       <c r="C157">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A157),0)</f>
+        <f t="shared" si="19"/>
         <v>76718</v>
       </c>
       <c r="D157">
-        <f>C157*$R$1</f>
+        <f t="shared" si="20"/>
         <v>15343600</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E157">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f>A157+1</f>
+        <f t="shared" si="21"/>
         <v>157</v>
       </c>
       <c r="B158">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A158),0)</f>
+        <f t="shared" si="18"/>
         <v>533616880</v>
       </c>
       <c r="C158">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A158),0)</f>
+        <f t="shared" si="19"/>
         <v>82089</v>
       </c>
       <c r="D158">
-        <f>C158*$R$1</f>
+        <f t="shared" si="20"/>
         <v>16417800</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E158">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f>A158+1</f>
+        <f t="shared" si="21"/>
         <v>158</v>
       </c>
       <c r="B159">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A159),0)</f>
+        <f t="shared" si="18"/>
         <v>597650906</v>
       </c>
       <c r="C159">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A159),0)</f>
+        <f t="shared" si="19"/>
         <v>87835</v>
       </c>
       <c r="D159">
-        <f>C159*$R$1</f>
+        <f t="shared" si="20"/>
         <v>17567000</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E159">
+        <f t="shared" si="22"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f>A159+1</f>
+        <f t="shared" si="21"/>
         <v>159</v>
       </c>
       <c r="B160">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A160),0)</f>
+        <f t="shared" si="18"/>
         <v>669369014</v>
       </c>
       <c r="C160">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A160),0)</f>
+        <f t="shared" si="19"/>
         <v>93983</v>
       </c>
       <c r="D160">
-        <f>C160*$R$1</f>
+        <f t="shared" si="20"/>
         <v>18796600</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E160">
+        <f t="shared" si="22"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f>A160+1</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="B161">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A161),0)</f>
+        <f t="shared" si="18"/>
         <v>749693296</v>
       </c>
       <c r="C161">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A161),0)</f>
+        <f t="shared" si="19"/>
         <v>100562</v>
       </c>
       <c r="D161">
-        <f>C161*$R$1</f>
+        <f t="shared" si="20"/>
         <v>20112400</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E161">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f>A161+1</f>
+        <f t="shared" si="21"/>
         <v>161</v>
       </c>
       <c r="B162">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A162),0)</f>
+        <f t="shared" ref="B162:B193" si="23">ROUND($K$2*$K$4*$K$5*($K$3^A162),0)</f>
         <v>839656491</v>
       </c>
       <c r="C162">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A162),0)</f>
+        <f t="shared" ref="C162:C193" si="24">ROUND($L$2*$L$4*$L$5*($L$3^A162),0)</f>
         <v>107601</v>
       </c>
       <c r="D162">
-        <f>C162*$R$1</f>
+        <f t="shared" ref="D162:D193" si="25">C162*$R$1</f>
         <v>21520200</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E162">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f>A162+1</f>
+        <f t="shared" ref="A163:A194" si="26">A162+1</f>
         <v>162</v>
       </c>
       <c r="B163">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A163),0)</f>
+        <f t="shared" si="23"/>
         <v>940415270</v>
       </c>
       <c r="C163">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A163),0)</f>
+        <f t="shared" si="24"/>
         <v>115134</v>
       </c>
       <c r="D163">
-        <f>C163*$R$1</f>
+        <f t="shared" si="25"/>
         <v>23026800</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E163">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f>A163+1</f>
+        <f t="shared" si="26"/>
         <v>163</v>
       </c>
       <c r="B164">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A164),0)</f>
+        <f t="shared" si="23"/>
         <v>1053265103</v>
       </c>
       <c r="C164">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A164),0)</f>
+        <f t="shared" si="24"/>
         <v>123193</v>
       </c>
       <c r="D164">
-        <f>C164*$R$1</f>
+        <f t="shared" si="25"/>
         <v>24638600</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E164">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f>A164+1</f>
+        <f t="shared" si="26"/>
         <v>164</v>
       </c>
       <c r="B165">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A165),0)</f>
+        <f t="shared" si="23"/>
         <v>1179656915</v>
       </c>
       <c r="C165">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A165),0)</f>
+        <f t="shared" si="24"/>
         <v>131816</v>
       </c>
       <c r="D165">
-        <f>C165*$R$1</f>
+        <f t="shared" si="25"/>
         <v>26363200</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E165">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f>A165+1</f>
+        <f t="shared" si="26"/>
         <v>165</v>
       </c>
       <c r="B166">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A166),0)</f>
+        <f t="shared" si="23"/>
         <v>1321215745</v>
       </c>
       <c r="C166">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A166),0)</f>
+        <f t="shared" si="24"/>
         <v>141044</v>
       </c>
       <c r="D166">
-        <f>C166*$R$1</f>
+        <f t="shared" si="25"/>
         <v>28208800</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E166">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f>A166+1</f>
+        <f t="shared" si="26"/>
         <v>166</v>
       </c>
       <c r="B167">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A167),0)</f>
+        <f t="shared" si="23"/>
         <v>1479761634</v>
       </c>
       <c r="C167">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A167),0)</f>
+        <f t="shared" si="24"/>
         <v>150917</v>
       </c>
       <c r="D167">
-        <f>C167*$R$1</f>
+        <f t="shared" si="25"/>
         <v>30183400</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E167">
+        <f t="shared" si="22"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f>A167+1</f>
+        <f t="shared" si="26"/>
         <v>167</v>
       </c>
       <c r="B168">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A168),0)</f>
+        <f t="shared" si="23"/>
         <v>1657333031</v>
       </c>
       <c r="C168">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A168),0)</f>
+        <f t="shared" si="24"/>
         <v>161481</v>
       </c>
       <c r="D168">
-        <f>C168*$R$1</f>
+        <f t="shared" si="25"/>
         <v>32296200</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E168">
+        <f t="shared" si="22"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f>A168+1</f>
+        <f t="shared" si="26"/>
         <v>168</v>
       </c>
       <c r="B169">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A169),0)</f>
+        <f t="shared" si="23"/>
         <v>1856212994</v>
       </c>
       <c r="C169">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A169),0)</f>
+        <f t="shared" si="24"/>
         <v>172784</v>
       </c>
       <c r="D169">
-        <f>C169*$R$1</f>
+        <f t="shared" si="25"/>
         <v>34556800</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E169">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f>A169+1</f>
+        <f t="shared" si="26"/>
         <v>169</v>
       </c>
       <c r="B170">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A170),0)</f>
+        <f t="shared" si="23"/>
         <v>2078958554</v>
       </c>
       <c r="C170">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A170),0)</f>
+        <f t="shared" si="24"/>
         <v>184879</v>
       </c>
       <c r="D170">
-        <f>C170*$R$1</f>
+        <f t="shared" si="25"/>
         <v>36975800</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E170">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f>A170+1</f>
+        <f t="shared" si="26"/>
         <v>170</v>
       </c>
       <c r="B171">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A171),0)</f>
+        <f t="shared" si="23"/>
         <v>2328433580</v>
       </c>
       <c r="C171">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A171),0)</f>
+        <f t="shared" si="24"/>
         <v>197821</v>
       </c>
       <c r="D171">
-        <f>C171*$R$1</f>
+        <f t="shared" si="25"/>
         <v>39564200</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E171">
+        <f t="shared" si="22"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f>A171+1</f>
+        <f t="shared" si="26"/>
         <v>171</v>
       </c>
       <c r="B172">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A172),0)</f>
+        <f t="shared" si="23"/>
         <v>2607845610</v>
       </c>
       <c r="C172">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A172),0)</f>
+        <f t="shared" si="24"/>
         <v>211668</v>
       </c>
       <c r="D172">
-        <f>C172*$R$1</f>
+        <f t="shared" si="25"/>
         <v>42333600</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E172">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f>A172+1</f>
+        <f t="shared" si="26"/>
         <v>172</v>
       </c>
       <c r="B173">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A173),0)</f>
+        <f t="shared" si="23"/>
         <v>2920787083</v>
       </c>
       <c r="C173">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A173),0)</f>
+        <f t="shared" si="24"/>
         <v>226485</v>
       </c>
       <c r="D173">
-        <f>C173*$R$1</f>
+        <f t="shared" si="25"/>
         <v>45297000</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E173">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f>A173+1</f>
+        <f t="shared" si="26"/>
         <v>173</v>
       </c>
       <c r="B174">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A174),0)</f>
+        <f t="shared" si="23"/>
         <v>3271281533</v>
       </c>
       <c r="C174">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A174),0)</f>
+        <f t="shared" si="24"/>
         <v>242339</v>
       </c>
       <c r="D174">
-        <f>C174*$R$1</f>
+        <f t="shared" si="25"/>
         <v>48467800</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E174">
+        <f t="shared" si="22"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f>A174+1</f>
+        <f t="shared" si="26"/>
         <v>174</v>
       </c>
       <c r="B175">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A175),0)</f>
+        <f t="shared" si="23"/>
         <v>3663835317</v>
       </c>
       <c r="C175">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A175),0)</f>
+        <f t="shared" si="24"/>
         <v>259303</v>
       </c>
       <c r="D175">
-        <f>C175*$R$1</f>
+        <f t="shared" si="25"/>
         <v>51860600</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E175">
+        <f t="shared" si="22"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f>A175+1</f>
+        <f t="shared" si="26"/>
         <v>175</v>
       </c>
       <c r="B176">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A176),0)</f>
+        <f t="shared" si="23"/>
         <v>4103495555</v>
       </c>
       <c r="C176">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A176),0)</f>
+        <f t="shared" si="24"/>
         <v>277454</v>
       </c>
       <c r="D176">
-        <f>C176*$R$1</f>
+        <f t="shared" si="25"/>
         <v>55490800</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E176">
+        <f t="shared" si="22"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f>A176+1</f>
+        <f t="shared" si="26"/>
         <v>176</v>
       </c>
       <c r="B177">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A177),0)</f>
+        <f t="shared" si="23"/>
         <v>4595915021</v>
       </c>
       <c r="C177">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A177),0)</f>
+        <f t="shared" si="24"/>
         <v>296876</v>
       </c>
       <c r="D177">
-        <f>C177*$R$1</f>
+        <f t="shared" si="25"/>
         <v>59375200</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E177">
+        <f t="shared" si="22"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <f>A177+1</f>
+        <f t="shared" si="26"/>
         <v>177</v>
       </c>
       <c r="B178">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A178),0)</f>
+        <f t="shared" si="23"/>
         <v>5147424824</v>
       </c>
       <c r="C178">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A178),0)</f>
+        <f t="shared" si="24"/>
         <v>317657</v>
       </c>
       <c r="D178">
-        <f>C178*$R$1</f>
+        <f t="shared" si="25"/>
         <v>63531400</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E178">
+        <f t="shared" si="22"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f>A178+1</f>
+        <f t="shared" si="26"/>
         <v>178</v>
       </c>
       <c r="B179">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A179),0)</f>
+        <f t="shared" si="23"/>
         <v>5765115803</v>
       </c>
       <c r="C179">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A179),0)</f>
+        <f t="shared" si="24"/>
         <v>339893</v>
       </c>
       <c r="D179">
-        <f>C179*$R$1</f>
+        <f t="shared" si="25"/>
         <v>67978600</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E179">
+        <f t="shared" si="22"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f>A179+1</f>
+        <f t="shared" si="26"/>
         <v>179</v>
       </c>
       <c r="B180">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A180),0)</f>
+        <f t="shared" si="23"/>
         <v>6456929699</v>
       </c>
       <c r="C180">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A180),0)</f>
+        <f t="shared" si="24"/>
         <v>363686</v>
       </c>
       <c r="D180">
-        <f>C180*$R$1</f>
+        <f t="shared" si="25"/>
         <v>72737200</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E180">
+        <f t="shared" si="22"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f>A180+1</f>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="B181">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A181),0)</f>
+        <f t="shared" si="23"/>
         <v>7231761263</v>
       </c>
       <c r="C181">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A181),0)</f>
+        <f t="shared" si="24"/>
         <v>389144</v>
       </c>
       <c r="D181">
-        <f>C181*$R$1</f>
+        <f t="shared" si="25"/>
         <v>77828800</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E181">
+        <f t="shared" si="22"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f>A181+1</f>
+        <f t="shared" si="26"/>
         <v>181</v>
       </c>
       <c r="B182">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A182),0)</f>
+        <f t="shared" si="23"/>
         <v>8099572614</v>
       </c>
       <c r="C182">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A182),0)</f>
+        <f t="shared" si="24"/>
         <v>416384</v>
       </c>
       <c r="D182">
-        <f>C182*$R$1</f>
+        <f t="shared" si="25"/>
         <v>83276800</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E182">
+        <f t="shared" si="22"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f>A182+1</f>
+        <f t="shared" si="26"/>
         <v>182</v>
       </c>
       <c r="B183">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A183),0)</f>
+        <f t="shared" si="23"/>
         <v>9071521328</v>
       </c>
       <c r="C183">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A183),0)</f>
+        <f t="shared" si="24"/>
         <v>445531</v>
       </c>
       <c r="D183">
-        <f>C183*$R$1</f>
+        <f t="shared" si="25"/>
         <v>89106200</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E183">
+        <f t="shared" si="22"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f>A183+1</f>
+        <f t="shared" si="26"/>
         <v>183</v>
       </c>
       <c r="B184">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A184),0)</f>
+        <f t="shared" si="23"/>
         <v>10160103887</v>
       </c>
       <c r="C184">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A184),0)</f>
+        <f t="shared" si="24"/>
         <v>476718</v>
       </c>
       <c r="D184">
-        <f>C184*$R$1</f>
+        <f t="shared" si="25"/>
         <v>95343600</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E184">
+        <f t="shared" si="22"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f>A184+1</f>
+        <f t="shared" si="26"/>
         <v>184</v>
       </c>
       <c r="B185">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A185),0)</f>
+        <f t="shared" si="23"/>
         <v>11379316354</v>
       </c>
       <c r="C185">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A185),0)</f>
+        <f t="shared" si="24"/>
         <v>510088</v>
       </c>
       <c r="D185">
-        <f>C185*$R$1</f>
+        <f t="shared" si="25"/>
         <v>102017600</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E185">
+        <f t="shared" si="22"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f>A185+1</f>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="B186">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A186),0)</f>
+        <f t="shared" si="23"/>
         <v>12744834316</v>
       </c>
       <c r="C186">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A186),0)</f>
+        <f t="shared" si="24"/>
         <v>545794</v>
       </c>
       <c r="D186">
-        <f>C186*$R$1</f>
+        <f t="shared" si="25"/>
         <v>109158800</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E186">
+        <f t="shared" si="22"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f>A186+1</f>
+        <f t="shared" si="26"/>
         <v>186</v>
       </c>
       <c r="B187">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A187),0)</f>
+        <f t="shared" si="23"/>
         <v>14274214434</v>
       </c>
       <c r="C187">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A187),0)</f>
+        <f t="shared" si="24"/>
         <v>584000</v>
       </c>
       <c r="D187">
-        <f>C187*$R$1</f>
+        <f t="shared" si="25"/>
         <v>116800000</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E187">
+        <f t="shared" si="22"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f>A187+1</f>
+        <f t="shared" si="26"/>
         <v>187</v>
       </c>
       <c r="B188">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A188),0)</f>
+        <f t="shared" si="23"/>
         <v>15987120166</v>
       </c>
       <c r="C188">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A188),0)</f>
+        <f t="shared" si="24"/>
         <v>624880</v>
       </c>
       <c r="D188">
-        <f>C188*$R$1</f>
+        <f t="shared" si="25"/>
         <v>124976000</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E188">
+        <f t="shared" si="22"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f>A188+1</f>
+        <f t="shared" si="26"/>
         <v>188</v>
       </c>
       <c r="B189">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A189),0)</f>
+        <f t="shared" si="23"/>
         <v>17905574586</v>
       </c>
       <c r="C189">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A189),0)</f>
+        <f t="shared" si="24"/>
         <v>668621</v>
       </c>
       <c r="D189">
-        <f>C189*$R$1</f>
+        <f t="shared" si="25"/>
         <v>133724200</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E189">
+        <f t="shared" si="22"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f>A189+1</f>
+        <f t="shared" si="26"/>
         <v>189</v>
       </c>
       <c r="B190">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A190),0)</f>
+        <f t="shared" si="23"/>
         <v>20054243537</v>
       </c>
       <c r="C190">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A190),0)</f>
+        <f t="shared" si="24"/>
         <v>715425</v>
       </c>
       <c r="D190">
-        <f>C190*$R$1</f>
+        <f t="shared" si="25"/>
         <v>143085000</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E190">
+        <f t="shared" si="22"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f>A190+1</f>
+        <f t="shared" si="26"/>
         <v>190</v>
       </c>
       <c r="B191">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A191),0)</f>
+        <f t="shared" si="23"/>
         <v>22460752761</v>
       </c>
       <c r="C191">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A191),0)</f>
+        <f t="shared" si="24"/>
         <v>765505</v>
       </c>
       <c r="D191">
-        <f>C191*$R$1</f>
+        <f t="shared" si="25"/>
         <v>153101000</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E191">
+        <f t="shared" si="22"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f>A191+1</f>
+        <f t="shared" si="26"/>
         <v>191</v>
       </c>
       <c r="B192">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A192),0)</f>
+        <f t="shared" si="23"/>
         <v>25156043092</v>
       </c>
       <c r="C192">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A192),0)</f>
+        <f t="shared" si="24"/>
         <v>819090</v>
       </c>
       <c r="D192">
-        <f>C192*$R$1</f>
+        <f t="shared" si="25"/>
         <v>163818000</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E192">
+        <f t="shared" si="22"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f>A192+1</f>
+        <f t="shared" si="26"/>
         <v>192</v>
       </c>
       <c r="B193">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A193),0)</f>
+        <f t="shared" si="23"/>
         <v>28174768263</v>
       </c>
       <c r="C193">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A193),0)</f>
+        <f t="shared" si="24"/>
         <v>876426</v>
       </c>
       <c r="D193">
-        <f>C193*$R$1</f>
+        <f t="shared" si="25"/>
         <v>175285200</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E193">
+        <f t="shared" si="22"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f>A193+1</f>
+        <f t="shared" si="26"/>
         <v>193</v>
       </c>
       <c r="B194">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A194),0)</f>
+        <f t="shared" ref="B194:B225" si="27">ROUND($K$2*$K$4*$K$5*($K$3^A194),0)</f>
         <v>31555740455</v>
       </c>
       <c r="C194">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A194),0)</f>
+        <f t="shared" ref="C194:C201" si="28">ROUND($L$2*$L$4*$L$5*($L$3^A194),0)</f>
         <v>937776</v>
       </c>
       <c r="D194">
-        <f>C194*$R$1</f>
+        <f t="shared" ref="D194:D225" si="29">C194*$R$1</f>
         <v>187555200</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E194">
+        <f t="shared" si="22"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f>A194+1</f>
+        <f t="shared" ref="A195:A201" si="30">A194+1</f>
         <v>194</v>
       </c>
       <c r="B195">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A195),0)</f>
+        <f t="shared" si="27"/>
         <v>35342429310</v>
       </c>
       <c r="C195">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A195),0)</f>
+        <f t="shared" si="28"/>
         <v>1003420</v>
       </c>
       <c r="D195">
-        <f>C195*$R$1</f>
+        <f t="shared" si="29"/>
         <v>200684000</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E195">
+        <f t="shared" si="22"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f>A195+1</f>
+        <f t="shared" si="30"/>
         <v>195</v>
       </c>
       <c r="B196">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A196),0)</f>
+        <f t="shared" si="27"/>
         <v>39583520827</v>
       </c>
       <c r="C196">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A196),0)</f>
+        <f t="shared" si="28"/>
         <v>1073660</v>
       </c>
       <c r="D196">
-        <f>C196*$R$1</f>
+        <f t="shared" si="29"/>
         <v>214732000</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E196">
+        <f t="shared" ref="E196:E201" si="31">ROUND($M$2*$M$4*$M$5*($M$3^A196),0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f>A196+1</f>
+        <f t="shared" si="30"/>
         <v>196</v>
       </c>
       <c r="B197">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A197),0)</f>
+        <f t="shared" si="27"/>
         <v>44333543326</v>
       </c>
       <c r="C197">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A197),0)</f>
+        <f t="shared" si="28"/>
         <v>1148816</v>
       </c>
       <c r="D197">
-        <f>C197*$R$1</f>
+        <f t="shared" si="29"/>
         <v>229763200</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E197">
+        <f t="shared" si="31"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <f>A197+1</f>
+        <f t="shared" si="30"/>
         <v>197</v>
       </c>
       <c r="B198">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A198),0)</f>
+        <f t="shared" si="27"/>
         <v>49653568525</v>
       </c>
       <c r="C198">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A198),0)</f>
+        <f t="shared" si="28"/>
         <v>1229233</v>
       </c>
       <c r="D198">
-        <f>C198*$R$1</f>
+        <f t="shared" si="29"/>
         <v>245846600</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E198">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <f>A198+1</f>
+        <f t="shared" si="30"/>
         <v>198</v>
       </c>
       <c r="B199">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A199),0)</f>
+        <f t="shared" si="27"/>
         <v>55611996748</v>
       </c>
       <c r="C199">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A199),0)</f>
+        <f t="shared" si="28"/>
         <v>1315279</v>
       </c>
       <c r="D199">
-        <f>C199*$R$1</f>
+        <f t="shared" si="29"/>
         <v>263055800</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E199">
+        <f t="shared" si="31"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <f>A199+1</f>
+        <f t="shared" si="30"/>
         <v>199</v>
       </c>
       <c r="B200">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A200),0)</f>
+        <f t="shared" si="27"/>
         <v>62285436358</v>
       </c>
       <c r="C200">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A200),0)</f>
+        <f t="shared" si="28"/>
         <v>1407349</v>
       </c>
       <c r="D200">
-        <f>C200*$R$1</f>
+        <f t="shared" si="29"/>
         <v>281469800</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E200">
+        <f t="shared" si="31"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <f>A200+1</f>
+        <f t="shared" si="30"/>
         <v>200</v>
       </c>
       <c r="B201">
-        <f>ROUND($K$2*$K$4*$K$5*($K$3^A201),0)</f>
+        <f t="shared" si="27"/>
         <v>69759688721</v>
       </c>
       <c r="C201">
-        <f>ROUND($L$2*$L$4*$L$5*($L$3^A201),0)</f>
+        <f t="shared" si="28"/>
         <v>1505863</v>
       </c>
       <c r="D201">
-        <f>C201*$R$1</f>
+        <f t="shared" si="29"/>
         <v>301172600</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="31"/>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
